--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_005.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_005.xlsx
@@ -31,304 +31,313 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295001AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(295019AK2.15) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Standby liquid control system</t>
-  </si>
-  <si>
-    <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
-  </si>
-  <si>
-    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
-  </si>
-  <si>
-    <t>(700000AA1.06) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295003AK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load sequencing</t>
-  </si>
-  <si>
-    <t>(295023AK2.06) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation (Mark III)</t>
+    <t>(295006AA2.05) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Whether a reactor SCRAM has occurred</t>
+  </si>
+  <si>
+    <t>(295001AA1.09) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(295031EK2.05) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295003AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Station blackout</t>
+  </si>
+  <si>
+    <t>(295027EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
+  </si>
+  <si>
+    <t>(295023AA1.10) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Alternate fuel pool makeup systems</t>
+  </si>
+  <si>
+    <t>(295024EK2.24) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Voltage disturbance</t>
+  </si>
+  <si>
+    <t>(295019AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Service air isolations</t>
+  </si>
+  <si>
+    <t>(600000AA2.11) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit for use of respirators</t>
+  </si>
+  <si>
+    <t>(295026EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) HPCI</t>
+  </si>
+  <si>
+    <t>(295004AK2.01) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Battery charger</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295030EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Heat capacity</t>
+  </si>
+  <si>
+    <t>(295037EK3.08) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Initiation of ATWS circuitry</t>
+  </si>
+  <si>
+    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295038EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Control room heating, ventilation, and air conditioning</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295011AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295008AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) RCIC turbine trip</t>
+  </si>
+  <si>
+    <t>(295022AA2.04) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295036EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.7 / 45.6 / 45.8) Equipment and floor drain sumps and pumps</t>
+  </si>
+  <si>
+    <t>(295029EK2.01) Knowledge of the relationship between the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(217000K4.10) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) System isolation</t>
+  </si>
+  <si>
+    <t>(215003A4.01) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM recorder indication</t>
+  </si>
+  <si>
+    <t>(263000K2.03) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Battery chargers</t>
+  </si>
+  <si>
+    <t>(300000K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Service air cross-connect valve</t>
+  </si>
+  <si>
+    <t>(212000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Valve position</t>
+  </si>
+  <si>
+    <t>(510000A3.02) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Valve alignment</t>
+  </si>
+  <si>
+    <t>(259002K3.09) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(264000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Fuel consumption rate</t>
+  </si>
+  <si>
+    <t>(223002K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Containment/drywell floor and equipment drain system</t>
+  </si>
+  <si>
+    <t>(400000A2.16) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to alternate decay heat removal system</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(261000K4.06) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Charcoal bed retention</t>
+  </si>
+  <si>
+    <t>(262001A4.04) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Synchronizing of AC sources</t>
+  </si>
+  <si>
+    <t>(205000K2.01) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Pump motors</t>
+  </si>
+  <si>
+    <t>(209001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Torus/suppression pool water level</t>
+  </si>
+  <si>
+    <t>(218000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(215004A3.04) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block status</t>
+  </si>
+  <si>
+    <t>(211000K3.03) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Core plate differential pressure</t>
+  </si>
+  <si>
+    <t>(203000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) NPSH limits</t>
+  </si>
+  <si>
+    <t>(209002K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Standby liquid control system</t>
+  </si>
+  <si>
+    <t>(262002A2.05) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of UPS</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (291008K1.12) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Trip indicators for circuit breakers and protective relays</t>
+  </si>
+  <si>
+    <t>(217000K4.14) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Control oil to turbine speed controls</t>
+  </si>
+  <si>
+    <t>(215003A4.05) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Trip bypasses</t>
+  </si>
+  <si>
+    <t>(263000K2.04) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Inverters</t>
+  </si>
+  <si>
+    <t>(300000K6.16) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Backwashing condensate filter/demins</t>
+  </si>
+  <si>
+    <t>(201001A2.10) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Low HCU accumulator pressure or high-level</t>
+  </si>
+  <si>
+    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(215001K4.03) Knowledge of (SF7 TIP) TRAVERSING IN CORE PROBE design features and/or interlocks that provide for the following: (CFR: 41.7) Radiation shielding</t>
+  </si>
+  <si>
+    <t>(219000A4.02) Ability to manually operate and/or monitor the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve lineup</t>
+  </si>
+  <si>
+    <t>(290001K2.01) (SF5 SC) SECONDARY CONTAINMENT Knowledge of electrical power supplies to the following: (CFR: 41.7) Airlock door interlock</t>
+  </si>
+  <si>
+    <t>(510001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.7 / 45.7) Cooling tower ice formation</t>
+  </si>
+  <si>
+    <t>(239001A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.5 / 45.5) Main steam temperature</t>
+  </si>
+  <si>
+    <t>(271000A3.01) Ability to monitor automatic operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.7 / 45.7) System isolations</t>
+  </si>
+  <si>
+    <t>(288000K3.04) Knowledge of the effect that a loss or malfunction of the (SF9 PVS) PLANT VENTILATION SYSTEMS will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Secondary containment pressure</t>
+  </si>
+  <si>
+    <t>(202002K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.5 / 45.3) Error signals</t>
+  </si>
+  <si>
+    <t>(290002K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation system</t>
+  </si>
+  <si>
+    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
+  </si>
+  <si>
+    <t>(292004K1.15) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain the differences between reactivity coefficients and reactivity defects</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
+  </si>
+  <si>
+    <t>(293008K1.01) THERMAL HYDRAULICS (CFR: 41.14) (BOILING HEAT TRANSFER) Distinguish between boiling processes and other heat transfer mechanisms</t>
+  </si>
+  <si>
+    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295001AA2.02) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Neutron monitoring</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.01) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Containment/drywell temperature</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
     <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
   </si>
   <si>
-    <t>(295030EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Suppression pool makeup system(s) operation</t>
-  </si>
-  <si>
-    <t>(295005AA1.09) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295025EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Safety/relief valve tailpipe temperature/pressure relationships</t>
-  </si>
-  <si>
-    <t>(295024EK2.21) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(600000AA2.12) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Location of vital equipment within fire zone</t>
-  </si>
-  <si>
-    <t>(295037EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Boron injection</t>
-  </si>
-  <si>
-    <t>(295016AA1.07) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Control room/local control transfer mechanisms</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Reactivity control</t>
-  </si>
-  <si>
-    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
-  </si>
-  <si>
-    <t>(295008AK3.09) Knowledge of the reasons for the following responses or actions as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) HPCS injection valve closure</t>
-  </si>
-  <si>
-    <t>(295029EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295036EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t>(295017AK2.08) Knowledge of the relationship between the (APE 17) ABNORMAL OFFSITE RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(209002A4.05) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Manual initiation controls</t>
-  </si>
-  <si>
-    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(400000K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(510000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Radiation alarm response</t>
-  </si>
-  <si>
-    <t>(263000A2.01) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Grounds/faults</t>
-  </si>
-  <si>
-    <t>(209001K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency generators</t>
-  </si>
-  <si>
-    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
-  </si>
-  <si>
-    <t>(262001K3.04) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Uninterruptible power supply system</t>
-  </si>
-  <si>
-    <t>(218000A3.10) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(300000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Instrument air supply pressure</t>
-  </si>
-  <si>
-    <t>(203000A4.14) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Testable check valves</t>
-  </si>
-  <si>
-    <t>(259002K4.04) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor water level setpoint setdown after a reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (291007K1.06) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Reason for demineralizer temperature and flow limits</t>
-  </si>
-  <si>
-    <t>(261000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(239002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Relief function of SRV operation</t>
-  </si>
-  <si>
-    <t>(264000A2.11) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Failure of emergency generator to start/load</t>
-  </si>
-  <si>
-    <t>(217000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
-  </si>
-  <si>
-    <t>(212000K2.01) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS motor-generator sets</t>
-  </si>
-  <si>
-    <t>(215005K3.08) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Plant process computer parameter display systems</t>
-  </si>
-  <si>
-    <t>(223002A3.02) Ability to monitor automatic operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.7 / 45.7) Valve closures</t>
-  </si>
-  <si>
-    <t>(215003A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Reactor power</t>
-  </si>
-  <si>
-    <t>(209002A4.16) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Emergency diesel generator operation</t>
-  </si>
-  <si>
-    <t>(262002K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(400000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Control rod drive hydraulic system</t>
-  </si>
-  <si>
-    <t>(245000A3.01) Ability to monitor automatic operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.7 / 45.7) Turbine trip</t>
-  </si>
-  <si>
-    <t>(202001A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.5 / 45.5) Recirculation pump flow</t>
-  </si>
-  <si>
-    <t>(259001A4.07) Ability to manually operate and/or monitor the (SF2 FWS) FEEDWATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump discharge pressure</t>
-  </si>
-  <si>
-    <t>(202002K4.02) Knowledge of (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Recirculation pump speed control</t>
-  </si>
-  <si>
-    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (291003K1.10) CONTROLLERS AND POSITIONERS (CFR: 41.7) Function and characteristics of air-operated valves, including failure modes</t>
-  </si>
-  <si>
-    <t>(510001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.7 / 45.7) Pump trip</t>
-  </si>
-  <si>
-    <t>(201001K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDH) CRD HYDRAULIC SYSTEM: (CFR: 41.5-7 / 41.10 / 45.1-6 / 45.12-13) Air-operated control valves</t>
-  </si>
-  <si>
-    <t>(201003A2.04) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Single control rod SCRAM</t>
-  </si>
-  <si>
-    <t>(290002K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Safety relief valve system</t>
-  </si>
-  <si>
-    <t>(219000K2.03) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Valve control logic</t>
-  </si>
-  <si>
-    <t>(256000K3.01) Knowledge of the effect that a loss or malfunction of the (SF2 CDS) CONDENSATE SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main turbine/main generator</t>
-  </si>
-  <si>
-    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
-  </si>
-  <si>
-    <t>(292004K1.04) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain Doppler broadening and self-shielding</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(293009K1.23) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the effects of mass flow on critical power</t>
-  </si>
-  <si>
-    <t>(293006K1.14) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Explain the results of putting centrifugal pumps in parallel or series combinations</t>
-  </si>
-  <si>
-    <t>(293008K1.12) THERMAL HYDRAULICS (CFR: 41.14) (POOL BOILING CURVE (TEMPERATURE VS. HEAT FLUX)) Describe stable film boiling</t>
-  </si>
-  <si>
-    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295010AA2.03) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell radiation levels</t>
-  </si>
-  <si>
-    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295020AA2.10) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor building radiation</t>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
+  </si>
+  <si>
+    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295010AA2.01) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Leak rates</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
   </si>
   <si>
     <t>(510000A2.07) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal intake water temperature</t>
   </si>
   <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(209001A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) DC failures</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(262001A2.09) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding voltage limitations</t>
-  </si>
-  <si>
-    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(230000A2.04) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(264000A2.10) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) LOCA</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>(245000A2.02) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of lube oil</t>
+  </si>
+  <si>
+    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(268000A2.04) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiological release isolation valve failure</t>
+  </si>
+  <si>
+    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>G</t>
@@ -337,33 +346,24 @@
     <t>K1</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>K3</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>K4</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>K6</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K5</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295038</t>
   </si>
   <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295034</t>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295011</t>
   </si>
   <si>
     <t>295008</t>
   </si>
   <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
     <t>295029</t>
   </si>
   <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295036</t>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295010</t>
   </si>
   <si>
     <t>295017</t>
   </si>
   <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
     <t>245000</t>
   </si>
   <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
     <t>239003</t>
   </si>
   <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>290003</t>
+    <t>268000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D29" t="s">
         <v>112</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
         <v>113</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,7 +1562,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D36" t="s">
         <v>109</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1599,7 +1599,7 @@
         <v>3.7</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D40" t="s">
         <v>112</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,7 +1664,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D42" t="s">
         <v>113</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,7 +1749,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D47" t="s">
         <v>109</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D51" t="s">
         <v>112</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,7 +1851,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D53" t="s">
         <v>113</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D57" t="s">
         <v>112</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,7 +1953,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D59" t="s">
         <v>113</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,7 +2038,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
         <v>109</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D77" t="s">
         <v>108</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
         <v>105</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D80" t="s">
         <v>105</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D81" t="s">
         <v>108</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
         <v>105</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D83" t="s">
         <v>108</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D84" t="s">
         <v>108</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="D85" t="s">
         <v>105</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D86" t="s">
         <v>108</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D87" t="s">
         <v>108</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D88" t="s">
         <v>105</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D91" t="s">
         <v>108</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="D92" t="s">
         <v>105</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D93" t="s">
         <v>108</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D94" t="s">
         <v>105</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
